--- a/King_simple.xlsx
+++ b/King_simple.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\UW MPA\543 Visual Analytics\Project\543_proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbb5a9f4d86d8888/Documents/GitHub/543_proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABD7637-DF0D-42BD-85C2-84782D6BFD6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DABD7637-DF0D-42BD-85C2-84782D6BFD6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A00621DD-5C71-404F-B663-EC75F2D7C8EB}"/>
   <bookViews>
-    <workbookView xWindow="55365" yWindow="2520" windowWidth="19725" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11640" yWindow="0" windowWidth="11400" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nhgis0002_ds239_20185_2018_coun" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Unnder  19</t>
-  </si>
-  <si>
     <t>19 to 34</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>No Insurance</t>
+  </si>
+  <si>
+    <t>Under  19</t>
   </si>
 </sst>
 </file>
@@ -901,33 +901,33 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -947,9 +947,9 @@
         <v>269033</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <f>SUM(C3:F3)</f>
@@ -968,9 +968,9 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B5" si="0">SUM(C4:F4)</f>
@@ -989,9 +989,9 @@
         <v>84351</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>

--- a/King_simple.xlsx
+++ b/King_simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbb5a9f4d86d8888/Documents/GitHub/543_proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DABD7637-DF0D-42BD-85C2-84782D6BFD6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A00621DD-5C71-404F-B663-EC75F2D7C8EB}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{DABD7637-DF0D-42BD-85C2-84782D6BFD6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0C9530DD-978E-482D-B5DD-A830C09892A2}"/>
   <bookViews>
     <workbookView xWindow="11640" yWindow="0" windowWidth="11400" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Total</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Under  19</t>
+  </si>
+  <si>
+    <t>Test field</t>
   </si>
 </sst>
 </file>
@@ -898,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,7 +913,7 @@
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +929,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -946,8 +952,11 @@
       <c r="F2">
         <v>269033</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -967,8 +976,11 @@
       <c r="F3">
         <v>2531</v>
       </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -988,8 +1000,11 @@
       <c r="F4">
         <v>84351</v>
       </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1008,6 +1023,9 @@
       </c>
       <c r="F5">
         <v>182151</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/King_simple.xlsx
+++ b/King_simple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dbb5a9f4d86d8888/Documents/GitHub/543_proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{DABD7637-DF0D-42BD-85C2-84782D6BFD6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0C9530DD-978E-482D-B5DD-A830C09892A2}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{DABD7637-DF0D-42BD-85C2-84782D6BFD6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A00621DD-5C71-404F-B663-EC75F2D7C8EB}"/>
   <bookViews>
     <workbookView xWindow="11640" yWindow="0" windowWidth="11400" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Total</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Under  19</t>
-  </si>
-  <si>
-    <t>Test field</t>
   </si>
 </sst>
 </file>
@@ -901,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -913,7 +910,7 @@
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -929,11 +926,8 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -952,11 +946,8 @@
       <c r="F2">
         <v>269033</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -976,11 +967,8 @@
       <c r="F3">
         <v>2531</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1000,11 +988,8 @@
       <c r="F4">
         <v>84351</v>
       </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1023,9 +1008,6 @@
       </c>
       <c r="F5">
         <v>182151</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
